--- a/Microsoft/Purview/Purview-Retail-Data-Protection-Masterclass/02-Data-Foundation/data-templates/CustomerDatabase-FULL.xlsx
+++ b/Microsoft/Purview/Purview-Retail-Data-Protection-Masterclass/02-Data-Foundation/data-templates/CustomerDatabase-FULL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPO\GitHub\Projects\Microsoft\Purview\Purview-Retail-Data-Protection-Masterclass\02-Data-Foundation\data-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9DAB322-176B-4316-8C35-CA82415058EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB9D28E1-C949-4C85-AE00-F763B9725937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5612C759-FBF3-4405-8528-1C741E3E0163}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C5F1C7C3-8866-4284-9601-669CA8C81C8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="279">
   <si>
     <t>Customer ID</t>
   </si>
@@ -89,793 +89,790 @@
     <t>C001</t>
   </si>
   <si>
+    <t>Lauren</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>lauren.smith@contoso.com</t>
+  </si>
+  <si>
+    <t>(392) 491-9134</t>
+  </si>
+  <si>
+    <t>605-50-4048</t>
+  </si>
+  <si>
+    <t>6011-3336-6513-2206</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>RET-176207-4</t>
+  </si>
+  <si>
+    <t>7188 Main St</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>robert.rodriguez@contoso.com</t>
+  </si>
+  <si>
+    <t>(998) 566-6021</t>
+  </si>
+  <si>
+    <t>339-93-9227</t>
+  </si>
+  <si>
+    <t>3747-147727-40130</t>
+  </si>
+  <si>
+    <t>Amex</t>
+  </si>
+  <si>
+    <t>RET-050201-7</t>
+  </si>
+  <si>
+    <t>2224 Pine Rd</t>
+  </si>
+  <si>
+    <t>San Jose</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>C003</t>
+  </si>
+  <si>
+    <t>lauren.smith@gmail.com</t>
+  </si>
+  <si>
+    <t>(809) 627-8980</t>
+  </si>
+  <si>
+    <t>583-06-4554</t>
+  </si>
+  <si>
+    <t>3705-465003-28226</t>
+  </si>
+  <si>
+    <t>RET-605516-5</t>
+  </si>
+  <si>
+    <t>8982 Oak Ave</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>C004</t>
+  </si>
+  <si>
     <t>Amanda</t>
   </si>
   <si>
-    <t>Rodriguez</t>
-  </si>
-  <si>
-    <t>amanda.rodriguez@contoso.com</t>
-  </si>
-  <si>
-    <t>(411) 846-7898</t>
-  </si>
-  <si>
-    <t>021-08-2161</t>
-  </si>
-  <si>
-    <t>3741-518555-51587</t>
-  </si>
-  <si>
-    <t>Amex</t>
-  </si>
-  <si>
-    <t>RET-312831-3</t>
-  </si>
-  <si>
-    <t>9282 Elm St</t>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>amanda.wilson@contoso.com</t>
+  </si>
+  <si>
+    <t>(364) 682-3815</t>
+  </si>
+  <si>
+    <t>475-47-0764</t>
+  </si>
+  <si>
+    <t>5124-4082-4524-2787</t>
+  </si>
+  <si>
+    <t>Mastercard</t>
+  </si>
+  <si>
+    <t>RET-667621-0</t>
+  </si>
+  <si>
+    <t>7754 Washington Blvd</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>C005</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>jessica.moore@contoso.com</t>
+  </si>
+  <si>
+    <t>(730) 639-5655</t>
+  </si>
+  <si>
+    <t>854-45-5056</t>
+  </si>
+  <si>
+    <t>4844-4614-3142-2578</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>RET-088512-3</t>
+  </si>
+  <si>
+    <t>2109 Oak Ave</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>C006</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>lauren.davis@hotmail.com</t>
+  </si>
+  <si>
+    <t>(659) 762-7463</t>
+  </si>
+  <si>
+    <t>714-18-1324</t>
+  </si>
+  <si>
+    <t>5203-4474-0703-1417</t>
+  </si>
+  <si>
+    <t>RET-561184-3</t>
+  </si>
+  <si>
+    <t>9641 Maple Dr</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>C007</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>emily.davis@contoso.com</t>
+  </si>
+  <si>
+    <t>(822) 765-8529</t>
+  </si>
+  <si>
+    <t>169-77-8145</t>
+  </si>
+  <si>
+    <t>3704-733025-40805</t>
+  </si>
+  <si>
+    <t>RET-748872-4</t>
+  </si>
+  <si>
+    <t>3186 Main St</t>
+  </si>
+  <si>
+    <t>C008</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>jennifer.gonzalez@contoso.com</t>
+  </si>
+  <si>
+    <t>(278) 970-1132</t>
+  </si>
+  <si>
+    <t>662-48-7773</t>
+  </si>
+  <si>
+    <t>4565-4310-5433-1647</t>
+  </si>
+  <si>
+    <t>RET-703008-6</t>
+  </si>
+  <si>
+    <t>1274 Elm St</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>C009</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>michael.taylor@icloud.com</t>
+  </si>
+  <si>
+    <t>(948) 722-3908</t>
+  </si>
+  <si>
+    <t>119-73-1942</t>
+  </si>
+  <si>
+    <t>6011-7227-1566-3009</t>
+  </si>
+  <si>
+    <t>RET-457026-5</t>
+  </si>
+  <si>
+    <t>6581 Lake Dr</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>C010</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>michelle.taylor@contoso.com</t>
+  </si>
+  <si>
+    <t>(754) 205-3717</t>
+  </si>
+  <si>
+    <t>745-33-7960</t>
+  </si>
+  <si>
+    <t>5237-0072-8150-0588</t>
+  </si>
+  <si>
+    <t>RET-236170-4</t>
+  </si>
+  <si>
+    <t>142 Pine Rd</t>
+  </si>
+  <si>
+    <t>C011</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>sarah.wilson@contoso.com</t>
+  </si>
+  <si>
+    <t>(803) 519-5662</t>
+  </si>
+  <si>
+    <t>573-01-3252</t>
+  </si>
+  <si>
+    <t>4271-0271-1283-3614</t>
+  </si>
+  <si>
+    <t>RET-262367-1</t>
+  </si>
+  <si>
+    <t>1579 Cedar Ln</t>
   </si>
   <si>
     <t>New York</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>C002</t>
-  </si>
-  <si>
-    <t>Michelle</t>
-  </si>
-  <si>
-    <t>Moore</t>
-  </si>
-  <si>
-    <t>michelle.moore@contoso.com</t>
-  </si>
-  <si>
-    <t>(923) 559-7711</t>
-  </si>
-  <si>
-    <t>026-35-7420</t>
-  </si>
-  <si>
-    <t>3725-824664-40625</t>
-  </si>
-  <si>
-    <t>RET-752764-0</t>
-  </si>
-  <si>
-    <t>5915 Pine Rd</t>
+    <t>C012</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>james.garcia@hotmail.com</t>
+  </si>
+  <si>
+    <t>(579) 870-7534</t>
+  </si>
+  <si>
+    <t>596-69-0004</t>
+  </si>
+  <si>
+    <t>6011-8345-0214-0321</t>
+  </si>
+  <si>
+    <t>RET-200118-1</t>
+  </si>
+  <si>
+    <t>1526 Cedar Ln</t>
+  </si>
+  <si>
+    <t>C013</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>james.brown@contoso.com</t>
+  </si>
+  <si>
+    <t>(979) 933-3956</t>
+  </si>
+  <si>
+    <t>891-12-7856</t>
+  </si>
+  <si>
+    <t>4213-5061-7247-3624</t>
+  </si>
+  <si>
+    <t>RET-285767-8</t>
+  </si>
+  <si>
+    <t>2879 Elm St</t>
+  </si>
+  <si>
+    <t>C014</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>daniel.moore@contoso.com</t>
+  </si>
+  <si>
+    <t>(502) 544-2981</t>
+  </si>
+  <si>
+    <t>388-46-0719</t>
+  </si>
+  <si>
+    <t>6011-1336-5317-8771</t>
+  </si>
+  <si>
+    <t>RET-818031-6</t>
+  </si>
+  <si>
+    <t>9621 Pine Rd</t>
+  </si>
+  <si>
+    <t>C015</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>amanda.jackson@yahoo.com</t>
+  </si>
+  <si>
+    <t>(360) 664-5546</t>
+  </si>
+  <si>
+    <t>336-05-2840</t>
+  </si>
+  <si>
+    <t>5251-8564-0106-5127</t>
+  </si>
+  <si>
+    <t>RET-628685-5</t>
+  </si>
+  <si>
+    <t>2719 Main St</t>
+  </si>
+  <si>
+    <t>C016</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>david.williams@contoso.com</t>
+  </si>
+  <si>
+    <t>(915) 861-9707</t>
+  </si>
+  <si>
+    <t>250-62-3816</t>
+  </si>
+  <si>
+    <t>3751-830518-08271</t>
+  </si>
+  <si>
+    <t>RET-810862-6</t>
+  </si>
+  <si>
+    <t>8203 Oak Ave</t>
   </si>
   <si>
     <t>PA</t>
   </si>
   <si>
-    <t>C003</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Williams</t>
-  </si>
-  <si>
-    <t>daniel.williams@hotmail.com</t>
-  </si>
-  <si>
-    <t>(991) 326-8892</t>
-  </si>
-  <si>
-    <t>849-74-2296</t>
-  </si>
-  <si>
-    <t>4584-5320-7551-7567</t>
-  </si>
-  <si>
-    <t>Visa</t>
-  </si>
-  <si>
-    <t>RET-562286-2</t>
-  </si>
-  <si>
-    <t>4750 Cedar Ln</t>
-  </si>
-  <si>
-    <t>San Diego</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>C004</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>Wilson</t>
-  </si>
-  <si>
-    <t>william.wilson@contoso.com</t>
-  </si>
-  <si>
-    <t>(602) 635-5764</t>
-  </si>
-  <si>
-    <t>528-89-0681</t>
-  </si>
-  <si>
-    <t>4447-2526-8473-3660</t>
-  </si>
-  <si>
-    <t>RET-325637-7</t>
-  </si>
-  <si>
-    <t>9576 Hill St</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>C005</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>william.taylor@contoso.com</t>
-  </si>
-  <si>
-    <t>(729) 662-6103</t>
-  </si>
-  <si>
-    <t>279-85-6302</t>
-  </si>
-  <si>
-    <t>3767-155075-40644</t>
-  </si>
-  <si>
-    <t>RET-356134-7</t>
-  </si>
-  <si>
-    <t>3934 Pine Rd</t>
-  </si>
-  <si>
-    <t>Phoenix</t>
-  </si>
-  <si>
-    <t>C006</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
+    <t>C017</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>matthew.brown@contoso.com</t>
+  </si>
+  <si>
+    <t>(693) 496-5714</t>
+  </si>
+  <si>
+    <t>277-12-3688</t>
+  </si>
+  <si>
+    <t>3768-451681-05477</t>
+  </si>
+  <si>
+    <t>RET-488701-7</t>
+  </si>
+  <si>
+    <t>7757 Lake Dr</t>
+  </si>
+  <si>
+    <t>C018</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>thomas.wilson@icloud.com</t>
+  </si>
+  <si>
+    <t>(963) 651-3861</t>
+  </si>
+  <si>
+    <t>315-36-5589</t>
+  </si>
+  <si>
+    <t>5245-5205-4546-8364</t>
+  </si>
+  <si>
+    <t>RET-415088-7</t>
+  </si>
+  <si>
+    <t>6130 Lake Dr</t>
+  </si>
+  <si>
+    <t>C019</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>thomas.lopez@contoso.com</t>
+  </si>
+  <si>
+    <t>(271) 413-5182</t>
+  </si>
+  <si>
+    <t>800-39-2660</t>
+  </si>
+  <si>
+    <t>6011-0165-3812-3709</t>
+  </si>
+  <si>
+    <t>RET-648874-1</t>
+  </si>
+  <si>
+    <t>4830 Main St</t>
+  </si>
+  <si>
+    <t>C020</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>ashley.johnson@contoso.com</t>
+  </si>
+  <si>
+    <t>(281) 451-4378</t>
+  </si>
+  <si>
+    <t>397-25-5027</t>
+  </si>
+  <si>
+    <t>5158-4423-0368-1083</t>
+  </si>
+  <si>
+    <t>RET-742320-4</t>
+  </si>
+  <si>
+    <t>3561 Cedar Ln</t>
+  </si>
+  <si>
+    <t>C021</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>david.miller@outlook.com</t>
+  </si>
+  <si>
+    <t>(714) 739-2163</t>
+  </si>
+  <si>
+    <t>474-06-0847</t>
+  </si>
+  <si>
+    <t>4833-5345-5501-6215</t>
+  </si>
+  <si>
+    <t>RET-703601-5</t>
+  </si>
+  <si>
+    <t>2659 Lake Dr</t>
+  </si>
+  <si>
+    <t>C022</t>
+  </si>
+  <si>
+    <t>michael.williams@contoso.com</t>
+  </si>
+  <si>
+    <t>(541) 935-4723</t>
+  </si>
+  <si>
+    <t>384-80-8373</t>
+  </si>
+  <si>
+    <t>3788-600157-54700</t>
+  </si>
+  <si>
+    <t>RET-680155-1</t>
+  </si>
+  <si>
+    <t>2209 Maple Dr</t>
+  </si>
+  <si>
+    <t>C023</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>daniel.jones@contoso.com</t>
+  </si>
+  <si>
+    <t>(765) 704-8986</t>
+  </si>
+  <si>
+    <t>155-77-5621</t>
+  </si>
+  <si>
+    <t>6011-2224-8328-3474</t>
+  </si>
+  <si>
+    <t>RET-113323-7</t>
+  </si>
+  <si>
+    <t>1515 Elm St</t>
+  </si>
+  <si>
+    <t>C024</t>
   </si>
   <si>
     <t>Martin</t>
   </si>
   <si>
-    <t>jennifer.martin@hotmail.com</t>
-  </si>
-  <si>
-    <t>(236) 215-7481</t>
-  </si>
-  <si>
-    <t>336-31-0519</t>
-  </si>
-  <si>
-    <t>6011-5486-4855-4006</t>
-  </si>
-  <si>
-    <t>Discover</t>
-  </si>
-  <si>
-    <t>RET-415006-8</t>
-  </si>
-  <si>
-    <t>8523 Pine Rd</t>
-  </si>
-  <si>
-    <t>Dallas</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>C007</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>michael.moore@contoso.com</t>
-  </si>
-  <si>
-    <t>(361) 291-6763</t>
-  </si>
-  <si>
-    <t>455-89-1533</t>
-  </si>
-  <si>
-    <t>6011-6765-7417-6033</t>
-  </si>
-  <si>
-    <t>RET-533056-8</t>
-  </si>
-  <si>
-    <t>7907 Oak Ave</t>
-  </si>
-  <si>
-    <t>San Jose</t>
-  </si>
-  <si>
-    <t>C008</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>lisa.wilson@contoso.com</t>
-  </si>
-  <si>
-    <t>(356) 433-4305</t>
-  </si>
-  <si>
-    <t>746-53-8112</t>
-  </si>
-  <si>
-    <t>6011-7271-5825-0319</t>
-  </si>
-  <si>
-    <t>RET-450365-1</t>
-  </si>
-  <si>
-    <t>467 Hill St</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>C009</t>
-  </si>
-  <si>
-    <t>Martinez</t>
-  </si>
-  <si>
-    <t>amanda.martinez@hotmail.com</t>
-  </si>
-  <si>
-    <t>(259) 861-3608</t>
-  </si>
-  <si>
-    <t>410-58-0030</t>
-  </si>
-  <si>
-    <t>5355-3856-0175-4617</t>
-  </si>
-  <si>
-    <t>Mastercard</t>
-  </si>
-  <si>
-    <t>RET-330213-0</t>
-  </si>
-  <si>
-    <t>8660 Hill St</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>C010</t>
-  </si>
-  <si>
-    <t>Ashley</t>
-  </si>
-  <si>
-    <t>ashley.williams@contoso.com</t>
-  </si>
-  <si>
-    <t>(357) 429-1836</t>
-  </si>
-  <si>
-    <t>741-39-2643</t>
-  </si>
-  <si>
-    <t>4560-7188-7887-5717</t>
-  </si>
-  <si>
-    <t>RET-884235-1</t>
-  </si>
-  <si>
-    <t>2589 Washington Blvd</t>
-  </si>
-  <si>
-    <t>Philadelphia</t>
-  </si>
-  <si>
-    <t>C011</t>
-  </si>
-  <si>
-    <t>william.martin@contoso.com</t>
-  </si>
-  <si>
-    <t>(331) 481-3146</t>
-  </si>
-  <si>
-    <t>081-45-9004</t>
-  </si>
-  <si>
-    <t>3735-250045-58032</t>
-  </si>
-  <si>
-    <t>RET-757684-8</t>
-  </si>
-  <si>
-    <t>3677 Elm St</t>
-  </si>
-  <si>
-    <t>C012</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>john.martin@hotmail.com</t>
-  </si>
-  <si>
-    <t>(667) 349-1479</t>
-  </si>
-  <si>
-    <t>609-04-6884</t>
-  </si>
-  <si>
-    <t>5115-5527-3742-1252</t>
-  </si>
-  <si>
-    <t>RET-048636-6</t>
-  </si>
-  <si>
-    <t>956 Cedar Ln</t>
-  </si>
-  <si>
-    <t>C013</t>
-  </si>
-  <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
-    <t>william.gonzalez@contoso.com</t>
-  </si>
-  <si>
-    <t>(951) 777-2867</t>
-  </si>
-  <si>
-    <t>334-47-6133</t>
-  </si>
-  <si>
-    <t>5381-8566-1738-0675</t>
-  </si>
-  <si>
-    <t>RET-225565-6</t>
-  </si>
-  <si>
-    <t>2140 Hill St</t>
-  </si>
-  <si>
-    <t>C014</t>
-  </si>
-  <si>
-    <t>Davis</t>
-  </si>
-  <si>
-    <t>ashley.davis@contoso.com</t>
-  </si>
-  <si>
-    <t>(996) 606-9059</t>
-  </si>
-  <si>
-    <t>040-71-2780</t>
-  </si>
-  <si>
-    <t>3738-762562-46068</t>
-  </si>
-  <si>
-    <t>RET-018311-1</t>
-  </si>
-  <si>
-    <t>6968 Pine Rd</t>
-  </si>
-  <si>
-    <t>C015</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>Garcia</t>
-  </si>
-  <si>
-    <t>richard.garcia@icloud.com</t>
-  </si>
-  <si>
-    <t>(792) 749-1382</t>
-  </si>
-  <si>
-    <t>501-37-4569</t>
-  </si>
-  <si>
-    <t>3725-266741-87327</t>
-  </si>
-  <si>
-    <t>RET-327450-7</t>
-  </si>
-  <si>
-    <t>5256 Pine Rd</t>
-  </si>
-  <si>
-    <t>C016</t>
-  </si>
-  <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>Miller</t>
-  </si>
-  <si>
-    <t>emily.miller@contoso.com</t>
-  </si>
-  <si>
-    <t>(734) 252-4320</t>
-  </si>
-  <si>
-    <t>303-72-7848</t>
-  </si>
-  <si>
-    <t>5133-2526-0478-4162</t>
-  </si>
-  <si>
-    <t>RET-148185-5</t>
-  </si>
-  <si>
-    <t>4390 Lake Dr</t>
-  </si>
-  <si>
-    <t>C017</t>
-  </si>
-  <si>
-    <t>Matthew</t>
-  </si>
-  <si>
-    <t>matthew.moore@contoso.com</t>
-  </si>
-  <si>
-    <t>(221) 522-5534</t>
-  </si>
-  <si>
-    <t>013-87-3561</t>
-  </si>
-  <si>
-    <t>6011-3133-0103-0214</t>
-  </si>
-  <si>
-    <t>RET-231816-8</t>
-  </si>
-  <si>
-    <t>5507 Pine Rd</t>
-  </si>
-  <si>
-    <t>C018</t>
-  </si>
-  <si>
-    <t>ashley.davis@outlook.com</t>
-  </si>
-  <si>
-    <t>(823) 274-5457</t>
-  </si>
-  <si>
-    <t>308-74-2357</t>
-  </si>
-  <si>
-    <t>6011-5871-5880-1152</t>
-  </si>
-  <si>
-    <t>RET-658121-5</t>
-  </si>
-  <si>
-    <t>6439 Hill St</t>
-  </si>
-  <si>
-    <t>San Antonio</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>C019</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>david.jackson@contoso.com</t>
-  </si>
-  <si>
-    <t>(564) 452-4776</t>
-  </si>
-  <si>
-    <t>742-97-5147</t>
-  </si>
-  <si>
-    <t>4655-5216-1006-3409</t>
-  </si>
-  <si>
-    <t>RET-367346-7</t>
-  </si>
-  <si>
-    <t>5059 Pine Rd</t>
-  </si>
-  <si>
-    <t>C020</t>
-  </si>
-  <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>emily.lopez@contoso.com</t>
-  </si>
-  <si>
-    <t>(740) 280-9819</t>
-  </si>
-  <si>
-    <t>273-36-8474</t>
-  </si>
-  <si>
-    <t>6011-6131-2016-2466</t>
-  </si>
-  <si>
-    <t>RET-668731-6</t>
-  </si>
-  <si>
-    <t>6314 Pine Rd</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>C021</t>
+    <t>thomas.martin@outlook.com</t>
+  </si>
+  <si>
+    <t>(837) 951-4037</t>
+  </si>
+  <si>
+    <t>681-29-4954</t>
+  </si>
+  <si>
+    <t>4154-1063-3333-1269</t>
+  </si>
+  <si>
+    <t>RET-661363-3</t>
+  </si>
+  <si>
+    <t>9133 Main St</t>
+  </si>
+  <si>
+    <t>C025</t>
+  </si>
+  <si>
+    <t>ashley.moore@contoso.com</t>
+  </si>
+  <si>
+    <t>(588) 346-7164</t>
+  </si>
+  <si>
+    <t>173-88-4457</t>
+  </si>
+  <si>
+    <t>3734-655858-10811</t>
+  </si>
+  <si>
+    <t>RET-681276-4</t>
+  </si>
+  <si>
+    <t>6483 Elm St</t>
+  </si>
+  <si>
+    <t>C026</t>
+  </si>
+  <si>
+    <t>Brittany</t>
+  </si>
+  <si>
+    <t>brittany.johnson@contoso.com</t>
+  </si>
+  <si>
+    <t>(573) 879-2730</t>
+  </si>
+  <si>
+    <t>384-38-9595</t>
+  </si>
+  <si>
+    <t>6011-5855-1422-6075</t>
+  </si>
+  <si>
+    <t>RET-581423-7</t>
+  </si>
+  <si>
+    <t>2722 Maple Dr</t>
+  </si>
+  <si>
+    <t>C027</t>
   </si>
   <si>
     <t>Anderson</t>
   </si>
   <si>
-    <t>michelle.anderson@yahoo.com</t>
-  </si>
-  <si>
-    <t>(688) 696-2129</t>
-  </si>
-  <si>
-    <t>626-85-7962</t>
-  </si>
-  <si>
-    <t>6011-8266-3464-4314</t>
-  </si>
-  <si>
-    <t>RET-704248-4</t>
-  </si>
-  <si>
-    <t>4804 Elm St</t>
-  </si>
-  <si>
-    <t>C022</t>
-  </si>
-  <si>
-    <t>Jessica</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>jessica.johnson@contoso.com</t>
-  </si>
-  <si>
-    <t>(342) 472-5877</t>
-  </si>
-  <si>
-    <t>086-60-8623</t>
-  </si>
-  <si>
-    <t>4135-2122-1208-5851</t>
-  </si>
-  <si>
-    <t>RET-582020-3</t>
-  </si>
-  <si>
-    <t>9860 Cedar Ln</t>
-  </si>
-  <si>
-    <t>C023</t>
-  </si>
-  <si>
-    <t>lisa.davis@contoso.com</t>
-  </si>
-  <si>
-    <t>(418) 483-3525</t>
-  </si>
-  <si>
-    <t>563-66-6876</t>
-  </si>
-  <si>
-    <t>4824-3680-5318-5403</t>
-  </si>
-  <si>
-    <t>RET-145788-4</t>
-  </si>
-  <si>
-    <t>9623 Maple Dr</t>
-  </si>
-  <si>
-    <t>C024</t>
-  </si>
-  <si>
-    <t>david.martin@icloud.com</t>
-  </si>
-  <si>
-    <t>(576) 340-1164</t>
-  </si>
-  <si>
-    <t>334-38-6309</t>
-  </si>
-  <si>
-    <t>3760-500871-10677</t>
-  </si>
-  <si>
-    <t>RET-173212-0</t>
-  </si>
-  <si>
-    <t>7568 Oak Ave</t>
-  </si>
-  <si>
-    <t>C025</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>amanda.jones@contoso.com</t>
-  </si>
-  <si>
-    <t>(440) 935-6573</t>
-  </si>
-  <si>
-    <t>705-48-1758</t>
-  </si>
-  <si>
-    <t>3731-070160-38853</t>
-  </si>
-  <si>
-    <t>RET-760677-3</t>
-  </si>
-  <si>
-    <t>1238 Oak Ave</t>
-  </si>
-  <si>
-    <t>C026</t>
-  </si>
-  <si>
-    <t>Sarah</t>
-  </si>
-  <si>
-    <t>sarah.anderson@contoso.com</t>
-  </si>
-  <si>
-    <t>(554) 202-1593</t>
-  </si>
-  <si>
-    <t>190-59-2803</t>
-  </si>
-  <si>
-    <t>6011-6272-8626-8550</t>
-  </si>
-  <si>
-    <t>RET-355611-8</t>
-  </si>
-  <si>
-    <t>2842 Pine Rd</t>
-  </si>
-  <si>
-    <t>C027</t>
-  </si>
-  <si>
-    <t>jennifer.williams@outlook.com</t>
-  </si>
-  <si>
-    <t>(796) 666-7129</t>
-  </si>
-  <si>
-    <t>754-98-1666</t>
-  </si>
-  <si>
-    <t>3773-321115-46007</t>
-  </si>
-  <si>
-    <t>RET-282306-0</t>
-  </si>
-  <si>
-    <t>2954 Lake Dr</t>
+    <t>daniel.anderson@icloud.com</t>
+  </si>
+  <si>
+    <t>(703) 862-9472</t>
+  </si>
+  <si>
+    <t>757-61-8995</t>
+  </si>
+  <si>
+    <t>6011-3471-0461-7516</t>
+  </si>
+  <si>
+    <t>RET-568266-3</t>
+  </si>
+  <si>
+    <t>7149 Oak Ave</t>
   </si>
   <si>
     <t>C028</t>
   </si>
   <si>
-    <t>Brittany</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>brittany.thomas@contoso.com</t>
-  </si>
-  <si>
-    <t>(980) 792-6514</t>
-  </si>
-  <si>
-    <t>459-60-7222</t>
-  </si>
-  <si>
-    <t>4787-6316-7382-2835</t>
-  </si>
-  <si>
-    <t>RET-328364-8</t>
-  </si>
-  <si>
-    <t>2203 Oak Ave</t>
+    <t>david.anderson@contoso.com</t>
+  </si>
+  <si>
+    <t>(813) 446-2883</t>
+  </si>
+  <si>
+    <t>744-04-1629</t>
+  </si>
+  <si>
+    <t>3731-673221-78843</t>
+  </si>
+  <si>
+    <t>RET-726373-8</t>
+  </si>
+  <si>
+    <t>906 Washington Blvd</t>
   </si>
   <si>
     <t>C029</t>
   </si>
   <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>robert.thomas@contoso.com</t>
-  </si>
-  <si>
-    <t>(209) 770-2466</t>
-  </si>
-  <si>
-    <t>885-69-8739</t>
-  </si>
-  <si>
-    <t>5166-6810-4256-6712</t>
-  </si>
-  <si>
-    <t>RET-152880-5</t>
-  </si>
-  <si>
-    <t>7065 Hill St</t>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>ashley.hernandez@contoso.com</t>
+  </si>
+  <si>
+    <t>(320) 300-4773</t>
+  </si>
+  <si>
+    <t>308-96-0275</t>
+  </si>
+  <si>
+    <t>3706-814711-17300</t>
+  </si>
+  <si>
+    <t>RET-086064-0</t>
+  </si>
+  <si>
+    <t>2199 Park Ave</t>
   </si>
   <si>
     <t>C030</t>
   </si>
   <si>
-    <t>david.williams@yahoo.com</t>
-  </si>
-  <si>
-    <t>(847) 826-3480</t>
-  </si>
-  <si>
-    <t>595-73-2294</t>
-  </si>
-  <si>
-    <t>5481-1168-8804-7742</t>
-  </si>
-  <si>
-    <t>RET-843804-6</t>
-  </si>
-  <si>
-    <t>7021 Hill St</t>
+    <t>daniel.rodriguez@hotmail.com</t>
+  </si>
+  <si>
+    <t>(389) 589-7314</t>
+  </si>
+  <si>
+    <t>257-92-5544</t>
+  </si>
+  <si>
+    <t>3706-360052-65008</t>
+  </si>
+  <si>
+    <t>RET-537271-2</t>
+  </si>
+  <si>
+    <t>2328 Hill St</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE35EF29-BE7A-4BD3-A0F6-BE03DC67A0E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B3D3E3-1C94-4F79-BF47-7C363C356810}">
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1272,7 +1269,7 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -1363,10 +1360,10 @@
         <v>23</v>
       </c>
       <c r="I2">
-        <v>145557876</v>
+        <v>212524838</v>
       </c>
       <c r="J2">
-        <v>78634951</v>
+        <v>35928397</v>
       </c>
       <c r="K2" t="s">
         <v>24</v>
@@ -1381,10 +1378,10 @@
         <v>27</v>
       </c>
       <c r="O2">
-        <v>60311</v>
+        <v>57209</v>
       </c>
       <c r="P2" s="2">
-        <v>45777</v>
+        <v>45684</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1410,42 +1407,42 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I3">
-        <v>841347377</v>
+        <v>310308176</v>
       </c>
       <c r="J3">
-        <v>95257136</v>
+        <v>10080973</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3">
-        <v>16432</v>
+        <v>32172</v>
       </c>
       <c r="P3" s="2">
-        <v>45766</v>
+        <v>45862</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>41</v>
@@ -1460,63 +1457,63 @@
         <v>44</v>
       </c>
       <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>661028505</v>
+      </c>
+      <c r="J4">
+        <v>69775754</v>
+      </c>
+      <c r="K4" t="s">
         <v>45</v>
       </c>
-      <c r="I4">
-        <v>353857665</v>
-      </c>
-      <c r="J4">
-        <v>71381734</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>46</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>47</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>48</v>
       </c>
-      <c r="N4" t="s">
-        <v>49</v>
-      </c>
       <c r="O4">
-        <v>36197</v>
+        <v>32917</v>
       </c>
       <c r="P4" s="2">
-        <v>45888</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>53</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>54</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>55</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>56</v>
       </c>
-      <c r="H5" t="s">
-        <v>45</v>
-      </c>
       <c r="I5">
-        <v>573257311</v>
+        <v>708747422</v>
       </c>
       <c r="J5">
-        <v>73621026</v>
+        <v>98891132</v>
       </c>
       <c r="K5" t="s">
         <v>57</v>
@@ -1528,13 +1525,13 @@
         <v>59</v>
       </c>
       <c r="N5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O5">
-        <v>41106</v>
+        <v>85631</v>
       </c>
       <c r="P5" s="2">
-        <v>45941</v>
+        <v>45660</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1542,81 +1539,81 @@
         <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I6">
-        <v>871025760</v>
+        <v>344512868</v>
       </c>
       <c r="J6">
-        <v>88850471</v>
+        <v>23012863</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O6">
-        <v>79202</v>
+        <v>71644</v>
       </c>
       <c r="P6" s="2">
-        <v>45783</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="I7">
-        <v>888237147</v>
+        <v>42683438</v>
       </c>
       <c r="J7">
-        <v>84404533</v>
+        <v>85398874</v>
       </c>
       <c r="K7" t="s">
         <v>77</v>
@@ -1631,10 +1628,10 @@
         <v>80</v>
       </c>
       <c r="O7">
-        <v>73898</v>
+        <v>82115</v>
       </c>
       <c r="P7" s="2">
-        <v>45820</v>
+        <v>45782</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1645,7 +1642,7 @@
         <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
         <v>83</v>
@@ -1660,13 +1657,13 @@
         <v>86</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="I8">
-        <v>376760508</v>
+        <v>36667545</v>
       </c>
       <c r="J8">
-        <v>33333373</v>
+        <v>64007205</v>
       </c>
       <c r="K8" t="s">
         <v>87</v>
@@ -1675,27 +1672,27 @@
         <v>88</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="N8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="O8">
-        <v>27679</v>
+        <v>76376</v>
       </c>
       <c r="P8" s="2">
-        <v>45969</v>
+        <v>45670</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
         <v>90</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>91</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
       </c>
       <c r="D9" t="s">
         <v>92</v>
@@ -1710,13 +1707,13 @@
         <v>95</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I9">
-        <v>357485081</v>
+        <v>770642858</v>
       </c>
       <c r="J9">
-        <v>33242581</v>
+        <v>94141095</v>
       </c>
       <c r="K9" t="s">
         <v>96</v>
@@ -1725,16 +1722,16 @@
         <v>97</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="O9">
-        <v>18258</v>
+        <v>34281</v>
       </c>
       <c r="P9" s="2">
-        <v>45874</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1742,31 +1739,31 @@
         <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H10" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="I10">
-        <v>612462472</v>
+        <v>843461418</v>
       </c>
       <c r="J10">
-        <v>34098963</v>
+        <v>89235880</v>
       </c>
       <c r="K10" t="s">
         <v>106</v>
@@ -1778,63 +1775,63 @@
         <v>108</v>
       </c>
       <c r="N10" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="O10">
-        <v>38886</v>
+        <v>64731</v>
       </c>
       <c r="P10" s="2">
-        <v>45990</v>
+        <v>45716</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11">
+        <v>256177166</v>
+      </c>
+      <c r="J11">
+        <v>54917528</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
         <v>109</v>
       </c>
-      <c r="B11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11">
-        <v>474285260</v>
-      </c>
-      <c r="J11">
-        <v>62116979</v>
-      </c>
-      <c r="K11" t="s">
-        <v>115</v>
-      </c>
-      <c r="L11" t="s">
-        <v>116</v>
-      </c>
-      <c r="M11" t="s">
-        <v>117</v>
-      </c>
-      <c r="N11" t="s">
-        <v>27</v>
-      </c>
       <c r="O11">
-        <v>81230</v>
+        <v>72434</v>
       </c>
       <c r="P11" s="2">
-        <v>45908</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1842,87 +1839,87 @@
         <v>118</v>
       </c>
       <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
-        <v>71</v>
-      </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I12">
-        <v>54222057</v>
+        <v>152723520</v>
       </c>
       <c r="J12">
-        <v>62371167</v>
+        <v>25703299</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M12" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="N12" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="O12">
-        <v>99431</v>
+        <v>23331</v>
       </c>
       <c r="P12" s="2">
-        <v>45951</v>
+        <v>45786</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H13" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="I13">
-        <v>137221825</v>
+        <v>116057488</v>
       </c>
       <c r="J13">
-        <v>28850061</v>
+        <v>54053051</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s">
         <v>59</v>
@@ -1931,521 +1928,521 @@
         <v>27</v>
       </c>
       <c r="O13">
-        <v>22654</v>
+        <v>12633</v>
       </c>
       <c r="P13" s="2">
-        <v>45816</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H14" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="I14">
-        <v>118001402</v>
+        <v>857685534</v>
       </c>
       <c r="J14">
-        <v>12348931</v>
+        <v>13275085</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M14" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="N14" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="O14">
-        <v>32583</v>
+        <v>78646</v>
       </c>
       <c r="P14" s="2">
-        <v>45895</v>
+        <v>45709</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H15" t="s">
         <v>23</v>
       </c>
       <c r="I15">
-        <v>758538672</v>
+        <v>524010687</v>
       </c>
       <c r="J15">
-        <v>93010462</v>
+        <v>59766921</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M15" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="N15" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="O15">
-        <v>75057</v>
+        <v>96424</v>
       </c>
       <c r="P15" s="2">
-        <v>45941</v>
+        <v>45745</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="I16">
-        <v>562515442</v>
+        <v>677742220</v>
       </c>
       <c r="J16">
-        <v>94682617</v>
+        <v>78823844</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M16" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="N16" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="O16">
-        <v>58681</v>
+        <v>93865</v>
       </c>
       <c r="P16" s="2">
-        <v>45714</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H17" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="I17">
-        <v>211864050</v>
+        <v>451770028</v>
       </c>
       <c r="J17">
-        <v>39031821</v>
+        <v>99888445</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M17" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="N17" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="O17">
-        <v>95176</v>
+        <v>37875</v>
       </c>
       <c r="P17" s="2">
-        <v>45671</v>
+        <v>45689</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="I18">
-        <v>716888814</v>
+        <v>805050504</v>
       </c>
       <c r="J18">
-        <v>79932165</v>
+        <v>68201573</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M18" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="N18" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="O18">
-        <v>71413</v>
+        <v>14241</v>
       </c>
       <c r="P18" s="2">
-        <v>45869</v>
+        <v>45807</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E19" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G19" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H19" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="I19">
-        <v>51511610</v>
+        <v>716684338</v>
       </c>
       <c r="J19">
-        <v>86524868</v>
+        <v>85209293</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M19" t="s">
-        <v>182</v>
+        <v>47</v>
       </c>
       <c r="N19" t="s">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="O19">
-        <v>99749</v>
+        <v>99657</v>
       </c>
       <c r="P19" s="2">
-        <v>45933</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I20">
-        <v>76220567</v>
+        <v>626588383</v>
       </c>
       <c r="J20">
-        <v>61484743</v>
+        <v>38504092</v>
       </c>
       <c r="K20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M20" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="N20" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O20">
-        <v>36243</v>
+        <v>27543</v>
       </c>
       <c r="P20" s="2">
-        <v>45843</v>
+        <v>45684</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="C21" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="I21">
-        <v>785316866</v>
+        <v>874138006</v>
       </c>
       <c r="J21">
-        <v>83787855</v>
+        <v>81779560</v>
       </c>
       <c r="K21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M21" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="N21" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="O21">
-        <v>55359</v>
+        <v>47421</v>
       </c>
       <c r="P21" s="2">
-        <v>45911</v>
+        <v>45828</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I22">
-        <v>745824324</v>
+        <v>748134776</v>
       </c>
       <c r="J22">
-        <v>15061931</v>
+        <v>23678004</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M22" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="N22" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="O22">
-        <v>54368</v>
+        <v>76010</v>
       </c>
       <c r="P22" s="2">
-        <v>45778</v>
+        <v>45714</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" t="s">
         <v>212</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>213</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>214</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>215</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23">
+        <v>846878258</v>
+      </c>
+      <c r="J23">
+        <v>89542449</v>
+      </c>
+      <c r="K23" t="s">
         <v>216</v>
       </c>
-      <c r="H23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23">
-        <v>651433402</v>
-      </c>
-      <c r="J23">
-        <v>75577293</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>217</v>
       </c>
-      <c r="L23" t="s">
-        <v>218</v>
-      </c>
       <c r="M23" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="N23" t="s">
         <v>27</v>
       </c>
       <c r="O23">
-        <v>86876</v>
+        <v>63084</v>
       </c>
       <c r="P23" s="2">
-        <v>45661</v>
+        <v>45665</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
         <v>219</v>
-      </c>
-      <c r="B24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" t="s">
-        <v>142</v>
       </c>
       <c r="D24" t="s">
         <v>220</v>
@@ -2460,13 +2457,13 @@
         <v>223</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I24">
-        <v>425303460</v>
+        <v>248145435</v>
       </c>
       <c r="J24">
-        <v>19360601</v>
+        <v>68149831</v>
       </c>
       <c r="K24" t="s">
         <v>224</v>
@@ -2475,16 +2472,16 @@
         <v>225</v>
       </c>
       <c r="M24" t="s">
-        <v>182</v>
+        <v>59</v>
       </c>
       <c r="N24" t="s">
         <v>27</v>
       </c>
       <c r="O24">
-        <v>63637</v>
+        <v>31339</v>
       </c>
       <c r="P24" s="2">
-        <v>45963</v>
+        <v>45748</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -2492,60 +2489,60 @@
         <v>226</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="D25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I25">
-        <v>202472811</v>
+        <v>750310170</v>
       </c>
       <c r="J25">
-        <v>41166532</v>
+        <v>97150450</v>
       </c>
       <c r="K25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="N25" t="s">
         <v>27</v>
       </c>
       <c r="O25">
-        <v>19599</v>
+        <v>11809</v>
       </c>
       <c r="P25" s="2">
-        <v>45810</v>
+        <v>45893</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="C26" t="s">
-        <v>234</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
         <v>235</v>
@@ -2560,13 +2557,13 @@
         <v>238</v>
       </c>
       <c r="H26" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I26">
-        <v>418771127</v>
+        <v>180887476</v>
       </c>
       <c r="J26">
-        <v>43707954</v>
+        <v>10219092</v>
       </c>
       <c r="K26" t="s">
         <v>239</v>
@@ -2575,16 +2572,16 @@
         <v>240</v>
       </c>
       <c r="M26" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="N26" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="O26">
-        <v>71136</v>
+        <v>10869</v>
       </c>
       <c r="P26" s="2">
-        <v>45713</v>
+        <v>45840</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -2595,7 +2592,7 @@
         <v>242</v>
       </c>
       <c r="C27" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D27" t="s">
         <v>243</v>
@@ -2610,13 +2607,13 @@
         <v>246</v>
       </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="I27">
-        <v>571765187</v>
+        <v>648302334</v>
       </c>
       <c r="J27">
-        <v>14318683</v>
+        <v>59338726</v>
       </c>
       <c r="K27" t="s">
         <v>247</v>
@@ -2625,16 +2622,16 @@
         <v>248</v>
       </c>
       <c r="M27" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="N27" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="O27">
-        <v>48570</v>
+        <v>81882</v>
       </c>
       <c r="P27" s="2">
-        <v>45828</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -2642,199 +2639,199 @@
         <v>249</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="D28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F28" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H28" t="s">
         <v>23</v>
       </c>
       <c r="I28">
-        <v>144486631</v>
+        <v>878384885</v>
       </c>
       <c r="J28">
-        <v>40693296</v>
+        <v>57515625</v>
       </c>
       <c r="K28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="N28" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="O28">
-        <v>78589</v>
+        <v>61444</v>
       </c>
       <c r="P28" s="2">
-        <v>45838</v>
+        <v>45767</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s">
-        <v>257</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
+        <v>250</v>
+      </c>
+      <c r="D29" t="s">
         <v>258</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>259</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>260</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>261</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29">
+        <v>452884544</v>
+      </c>
+      <c r="J29">
+        <v>43903488</v>
+      </c>
+      <c r="K29" t="s">
         <v>262</v>
       </c>
-      <c r="H29" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29">
-        <v>132807248</v>
-      </c>
-      <c r="J29">
-        <v>12906122</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>263</v>
       </c>
-      <c r="L29" t="s">
-        <v>264</v>
-      </c>
       <c r="M29" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="N29" t="s">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="O29">
-        <v>23567</v>
+        <v>49941</v>
       </c>
       <c r="P29" s="2">
-        <v>45843</v>
+        <v>45698</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>264</v>
+      </c>
+      <c r="B30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" t="s">
         <v>265</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>266</v>
       </c>
-      <c r="C30" t="s">
-        <v>258</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>267</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>268</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>269</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30">
+        <v>165151366</v>
+      </c>
+      <c r="J30">
+        <v>63746553</v>
+      </c>
+      <c r="K30" t="s">
         <v>270</v>
       </c>
-      <c r="H30" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30">
-        <v>773034572</v>
-      </c>
-      <c r="J30">
-        <v>29570486</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>271</v>
       </c>
-      <c r="L30" t="s">
-        <v>272</v>
-      </c>
       <c r="M30" t="s">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="N30" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="O30">
-        <v>35790</v>
+        <v>71989</v>
       </c>
       <c r="P30" s="2">
-        <v>45706</v>
+        <v>45777</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>272</v>
+      </c>
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
         <v>273</v>
       </c>
-      <c r="B31" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>274</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>275</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31">
+        <v>741854688</v>
+      </c>
+      <c r="J31">
+        <v>85956555</v>
+      </c>
+      <c r="K31" t="s">
         <v>277</v>
       </c>
-      <c r="H31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31">
-        <v>470073525</v>
-      </c>
-      <c r="J31">
-        <v>55146776</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>278</v>
       </c>
-      <c r="L31" t="s">
-        <v>279</v>
-      </c>
       <c r="M31" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="N31" t="s">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="O31">
-        <v>93455</v>
+        <v>36122</v>
       </c>
       <c r="P31" s="2">
-        <v>45748</v>
+        <v>45792</v>
       </c>
     </row>
   </sheetData>
